--- a/1-SystemDocs/Connections_Ports_Memory_spec.xlsx
+++ b/1-SystemDocs/Connections_Ports_Memory_spec.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6465" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6465" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="SPI ETH ESP32" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="UDP packets" sheetId="5" r:id="rId5"/>
     <sheet name="UDP datagram definition" sheetId="6" r:id="rId6"/>
     <sheet name="Message Types" sheetId="7" r:id="rId7"/>
-    <sheet name="TO DO" sheetId="8" r:id="rId8"/>
+    <sheet name="ADC selection" sheetId="9" r:id="rId8"/>
+    <sheet name="TO DO" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="168">
   <si>
     <t>ETH*</t>
   </si>
@@ -484,6 +485,57 @@
   </si>
   <si>
     <t>50..53</t>
+  </si>
+  <si>
+    <t>ADS114S08</t>
+  </si>
+  <si>
+    <t>ADS1115</t>
+  </si>
+  <si>
+    <t>libs</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>harder</t>
+  </si>
+  <si>
+    <t>supplies</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Current injectors</t>
+  </si>
+  <si>
+    <t>Digital interface</t>
+  </si>
+  <si>
+    <t>direct SPI</t>
+  </si>
+  <si>
+    <t>I2C + level shift</t>
+  </si>
+  <si>
+    <t>filter 50Hz</t>
+  </si>
+  <si>
+    <t>voltage bias</t>
+  </si>
+  <si>
+    <t>Digital speed</t>
+  </si>
+  <si>
+    <t>400k</t>
+  </si>
+  <si>
+    <t>10M or 5M</t>
   </si>
 </sst>
 </file>
@@ -529,7 +581,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -551,6 +603,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,7 +743,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -757,6 +815,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normálne" xfId="0" builtinId="0"/>
@@ -2090,8 +2149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2142,6 +2201,7 @@
         <v>110</v>
       </c>
       <c r="D5" s="32"/>
+      <c r="H5" s="16"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="33">
@@ -2153,6 +2213,7 @@
       <c r="D6" s="35" t="s">
         <v>108</v>
       </c>
+      <c r="H6" s="16"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="36" t="s">
@@ -2486,6 +2547,113 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" t="s">
+        <v>166</v>
+      </c>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>

--- a/1-SystemDocs/Connections_Ports_Memory_spec.xlsx
+++ b/1-SystemDocs/Connections_Ports_Memory_spec.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\01_GIT_REPOS\FRA_Sensor_platform\1-SystemDocs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E875542\Documents\GitHub\FRA_Sensor_platform\1-SystemDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1AA36D-8D16-49A6-AC82-8541BA1A3267}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6465" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SPI ETH ESP32" sheetId="1" r:id="rId1"/>
@@ -22,10 +23,16 @@
     <sheet name="ADC selection" sheetId="9" r:id="rId8"/>
     <sheet name="TO DO" sheetId="8" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -541,8 +548,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -576,6 +583,12 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -743,7 +756,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -762,10 +775,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -816,9 +827,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normálne" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -850,7 +865,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Obrázok 1"/>
+        <xdr:cNvPr id="2" name="Obrázok 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1138,7 +1159,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -1429,7 +1450,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -1512,11 +1533,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:L11"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:G11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1586,7 +1607,7 @@
       <c r="D4" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>75</v>
       </c>
       <c r="F4" s="9"/>
@@ -1614,7 +1635,7 @@
       <c r="D5" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>74</v>
       </c>
       <c r="F5" s="9">
@@ -1646,7 +1667,7 @@
       <c r="D6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>46</v>
       </c>
       <c r="F6" s="9">
@@ -1678,7 +1699,7 @@
       <c r="D7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>26</v>
       </c>
       <c r="F7" s="9">
@@ -1710,7 +1731,7 @@
       <c r="D8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>23</v>
       </c>
       <c r="F8" s="9">
@@ -1742,7 +1763,7 @@
       <c r="D9" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F9" s="9">
@@ -1765,25 +1786,25 @@
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="13">
+      <c r="B10" s="42">
         <v>15</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="42">
         <v>3</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="42" t="s">
         <v>59</v>
       </c>
       <c r="J10">
@@ -1797,15 +1818,19 @@
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="12">
+      <c r="B11" s="43">
         <v>3</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="D11" s="45"/>
+      <c r="E11" s="43" t="s">
         <v>76</v>
       </c>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
       <c r="J11" t="s">
         <v>71</v>
       </c>
@@ -1818,7 +1843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1837,7 +1862,7 @@
       <c r="B1" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="12" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1845,10 +1870,10 @@
       <c r="A2" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="15">
         <v>2000000000</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="14" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1856,7 +1881,7 @@
       <c r="A3" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="13">
         <v>2</v>
       </c>
       <c r="D3" t="s">
@@ -1867,7 +1892,7 @@
       <c r="A4" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="13">
         <v>12</v>
       </c>
       <c r="C4">
@@ -1882,7 +1907,7 @@
       <c r="A5" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="13">
         <v>1</v>
       </c>
       <c r="D5" t="s">
@@ -1935,7 +1960,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1998,7 +2023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2017,7 +2042,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2033,71 +2058,71 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="19">
+      <c r="A3" s="17">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="17" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
+      <c r="A4" s="17">
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="17" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="19">
+      <c r="A5" s="17">
         <v>3</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="17" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
+      <c r="A6" s="17">
         <v>4</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="17" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
+      <c r="A7" s="18">
         <v>5</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="F7" s="40"/>
+      <c r="F7" s="38"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="17" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2105,7 +2130,7 @@
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="17" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2113,7 +2138,7 @@
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="17" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2121,7 +2146,7 @@
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="17" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2146,7 +2171,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2160,384 +2185,384 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="22" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="25">
+      <c r="B2" s="23">
         <v>5</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="19">
         <v>1</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="24" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="27" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="H5" s="16"/>
+      <c r="D5" s="30"/>
+      <c r="H5" s="14"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="33">
+      <c r="B6" s="31">
         <v>5</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="32">
         <v>2</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="H6" s="16"/>
+      <c r="H6" s="14"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="33" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="33" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="33" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="33"/>
-      <c r="C10" s="34" t="s">
+      <c r="B10" s="31"/>
+      <c r="C10" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="33" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="33" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="37" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="F14" s="30" t="s">
+      <c r="D14" s="30"/>
+      <c r="F14" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="G14" s="31" t="s">
+      <c r="G14" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="H14" s="32"/>
+      <c r="H14" s="30"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="33">
+      <c r="B15" s="31">
         <v>5</v>
       </c>
-      <c r="C15" s="34">
+      <c r="C15" s="32">
         <v>3</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="F15" s="33">
+      <c r="F15" s="31">
         <v>5</v>
       </c>
-      <c r="G15" s="34">
+      <c r="G15" s="32">
         <v>3</v>
       </c>
-      <c r="H15" s="35"/>
+      <c r="H15" s="33"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="D16" s="35"/>
-      <c r="F16" s="33">
+      <c r="D16" s="33"/>
+      <c r="F16" s="31">
         <v>6</v>
       </c>
-      <c r="G16" s="34">
+      <c r="G16" s="32">
         <v>4</v>
       </c>
-      <c r="H16" s="35" t="s">
+      <c r="H16" s="33" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="33"/>
-      <c r="C17" s="33">
+      <c r="B17" s="31"/>
+      <c r="C17" s="31">
         <v>1</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="F17" s="36" t="s">
+      <c r="F17" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="G17" s="34" t="s">
+      <c r="G17" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="H17" s="35" t="s">
+      <c r="H17" s="33" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="33"/>
-      <c r="C18" s="33">
+      <c r="B18" s="31"/>
+      <c r="C18" s="31">
         <v>2</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="F18" s="37"/>
-      <c r="G18" s="38">
+      <c r="F18" s="35"/>
+      <c r="G18" s="36">
         <v>1</v>
       </c>
-      <c r="H18" s="39" t="s">
+      <c r="H18" s="37" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="33"/>
-      <c r="C19" s="33">
+      <c r="B19" s="31"/>
+      <c r="C19" s="31">
         <v>3</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="33" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="33"/>
-      <c r="C20" s="33">
+      <c r="B20" s="31"/>
+      <c r="C20" s="31">
         <v>4</v>
       </c>
-      <c r="D20" s="35" t="s">
+      <c r="D20" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="F20" s="30" t="s">
+      <c r="F20" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="G20" s="31" t="s">
+      <c r="G20" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="H20" s="32"/>
+      <c r="H20" s="30"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="42"/>
-      <c r="C21" s="42">
+      <c r="B21" s="40"/>
+      <c r="C21" s="40">
         <v>5</v>
       </c>
-      <c r="D21" s="41" t="s">
+      <c r="D21" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="F21" s="33">
+      <c r="F21" s="31">
         <v>5</v>
       </c>
-      <c r="G21" s="34">
+      <c r="G21" s="32">
         <v>3</v>
       </c>
-      <c r="H21" s="35"/>
+      <c r="H21" s="33"/>
     </row>
     <row r="22" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="37"/>
-      <c r="C22" s="37">
+      <c r="B22" s="35"/>
+      <c r="C22" s="35">
         <v>6</v>
       </c>
-      <c r="D22" s="39" t="s">
+      <c r="D22" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="F22" s="33">
+      <c r="F22" s="31">
         <v>6</v>
       </c>
-      <c r="G22" s="34">
+      <c r="G22" s="32">
         <v>6</v>
       </c>
-      <c r="H22" s="35" t="s">
+      <c r="H22" s="33" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C23" s="42">
+      <c r="C23" s="40">
         <v>7</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="D23" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="F23" s="33">
+      <c r="F23" s="31">
         <v>7</v>
       </c>
-      <c r="G23" s="34" t="s">
+      <c r="G23" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="H23" s="35" t="s">
+      <c r="H23" s="33" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C24" s="42">
+      <c r="C24" s="40">
         <v>8</v>
       </c>
-      <c r="D24" s="41" t="s">
+      <c r="D24" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="F24" s="33"/>
-      <c r="G24" s="34" t="s">
+      <c r="F24" s="31"/>
+      <c r="G24" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="H24" s="35" t="s">
+      <c r="H24" s="33" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F25" s="33">
+      <c r="F25" s="31">
         <v>8</v>
       </c>
-      <c r="G25" s="34" t="s">
+      <c r="G25" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="H25" s="35" t="s">
+      <c r="H25" s="33" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F26" s="33"/>
-      <c r="G26" s="12" t="s">
+      <c r="F26" s="31"/>
+      <c r="G26" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="H26" s="41" t="s">
+      <c r="H26" s="39" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F27" s="33"/>
-      <c r="G27" s="34" t="s">
+      <c r="F27" s="31"/>
+      <c r="G27" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="H27" s="41" t="s">
+      <c r="H27" s="39" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F28" s="33">
+      <c r="F28" s="31">
         <v>9</v>
       </c>
-      <c r="G28" s="34" t="s">
+      <c r="G28" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="H28" s="35" t="s">
+      <c r="H28" s="33" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F29" s="33">
+      <c r="F29" s="31">
         <v>10</v>
       </c>
-      <c r="G29" s="34" t="s">
+      <c r="G29" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="H29" s="35" t="s">
+      <c r="H29" s="33" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F30" s="33" t="s">
+      <c r="F30" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="G30" s="34" t="s">
+      <c r="G30" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="H30" s="41" t="s">
+      <c r="H30" s="39" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F31" s="33">
+      <c r="F31" s="31">
         <v>29</v>
       </c>
-      <c r="G31" s="34" t="s">
+      <c r="G31" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="H31" s="35" t="s">
+      <c r="H31" s="33" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F32" s="37">
+      <c r="F32" s="35">
         <v>30</v>
       </c>
-      <c r="G32" s="38" t="s">
+      <c r="G32" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="H32" s="39" t="s">
+      <c r="H32" s="37" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2547,10 +2572,10 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -2576,7 +2601,7 @@
       <c r="B2" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="41" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2587,7 +2612,7 @@
       <c r="B3" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="41" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2595,7 +2620,7 @@
       <c r="A4" t="s">
         <v>159</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="41" t="s">
         <v>157</v>
       </c>
       <c r="C4" t="s">
@@ -2606,7 +2631,7 @@
       <c r="A5" t="s">
         <v>160</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="41" t="s">
         <v>161</v>
       </c>
       <c r="C5" t="s">
@@ -2617,7 +2642,7 @@
       <c r="A6" t="s">
         <v>163</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="41" t="s">
         <v>157</v>
       </c>
       <c r="C6" t="s">
@@ -2628,7 +2653,7 @@
       <c r="A7" t="s">
         <v>164</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="41" t="s">
         <v>157</v>
       </c>
       <c r="C7" t="s">
@@ -2639,14 +2664,14 @@
       <c r="A8" t="s">
         <v>165</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="41" t="s">
         <v>167</v>
       </c>
       <c r="C8" t="s">
         <v>166</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2654,7 +2679,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/1-SystemDocs/Connections_Ports_Memory_spec.xlsx
+++ b/1-SystemDocs/Connections_Ports_Memory_spec.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E875542\Documents\GitHub\FRA_Sensor_platform\1-SystemDocs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\01_GIT_REPOS\FRA_Sensor_platform\1-SystemDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1AA36D-8D16-49A6-AC82-8541BA1A3267}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="SPI ETH ESP32" sheetId="1" r:id="rId1"/>
     <sheet name="Pinout ETH DEEK" sheetId="2" r:id="rId2"/>
     <sheet name="JTAG conn" sheetId="3" r:id="rId3"/>
-    <sheet name="SD usage" sheetId="4" r:id="rId4"/>
-    <sheet name="UDP packets" sheetId="5" r:id="rId5"/>
-    <sheet name="UDP datagram definition" sheetId="6" r:id="rId6"/>
-    <sheet name="Message Types" sheetId="7" r:id="rId7"/>
-    <sheet name="ADC selection" sheetId="9" r:id="rId8"/>
-    <sheet name="TO DO" sheetId="8" r:id="rId9"/>
+    <sheet name="Hárok1" sheetId="10" r:id="rId4"/>
+    <sheet name="SD usage" sheetId="4" r:id="rId5"/>
+    <sheet name="UDP packets" sheetId="5" r:id="rId6"/>
+    <sheet name="UDP datagram definition" sheetId="6" r:id="rId7"/>
+    <sheet name="Message Types" sheetId="7" r:id="rId8"/>
+    <sheet name="ADC selection" sheetId="9" r:id="rId9"/>
+    <sheet name="Time budget" sheetId="11" r:id="rId10"/>
+    <sheet name="TO DO" sheetId="8" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="170">
   <si>
     <t>ETH*</t>
   </si>
@@ -543,12 +544,18 @@
   </si>
   <si>
     <t>10M or 5M</t>
+  </si>
+  <si>
+    <t>Sending UDP</t>
+  </si>
+  <si>
+    <t>time [us]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -833,7 +840,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normálne" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -868,7 +875,7 @@
         <xdr:cNvPr id="2" name="Obrázok 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1159,7 +1166,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -1449,8 +1456,86 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -1533,11 +1618,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1843,7 +1928,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1959,8 +2056,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2022,8 +2119,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2170,8 +2267,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2571,8 +2668,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2676,34 +2773,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/1-SystemDocs/Connections_Ports_Memory_spec.xlsx
+++ b/1-SystemDocs/Connections_Ports_Memory_spec.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SPI ETH ESP32" sheetId="1" r:id="rId1"/>
@@ -556,7 +556,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -595,6 +595,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -763,7 +770,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -838,6 +845,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normálne" xfId="0" builtinId="0"/>
@@ -875,7 +885,7 @@
         <xdr:cNvPr id="2" name="Obrázok 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1460,7 +1470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1621,8 +1631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L11"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1695,7 +1705,9 @@
       <c r="E4" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="9">
+        <v>2</v>
+      </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9" t="s">
         <v>45</v>
@@ -1743,19 +1755,19 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="9">
+      <c r="B6" s="46">
         <v>5</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="46">
         <v>14</v>
       </c>
       <c r="G6" s="9" t="s">
@@ -1775,19 +1787,19 @@
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="9">
+      <c r="B7" s="46">
         <v>7</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="46">
         <v>13</v>
       </c>
       <c r="G7" s="9" t="s">
@@ -1807,19 +1819,19 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="9">
+      <c r="B8" s="46">
         <v>9</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="46">
         <v>16</v>
       </c>
       <c r="G8" s="9" t="s">
@@ -1839,19 +1851,19 @@
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="9">
+      <c r="B9" s="46">
         <v>13</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="46">
         <v>23</v>
       </c>
       <c r="G9" s="9" t="s">
@@ -1871,19 +1883,19 @@
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="42">
+      <c r="B10" s="48">
         <v>15</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="42" t="s">
+      <c r="E10" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="42">
+      <c r="F10" s="48">
         <v>3</v>
       </c>
       <c r="G10" s="42" t="s">

--- a/1-SystemDocs/Connections_Ports_Memory_spec.xlsx
+++ b/1-SystemDocs/Connections_Ports_Memory_spec.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="SPI ETH ESP32" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="177">
   <si>
     <t>ETH*</t>
   </si>
@@ -550,13 +550,34 @@
   </si>
   <si>
     <t>time [us]</t>
+  </si>
+  <si>
+    <t>ESP32 pin</t>
+  </si>
+  <si>
+    <t>3v3</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>SD_CS</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>CS_ETH</t>
+  </si>
+  <si>
+    <t>ETH_RST</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -603,6 +624,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -770,7 +799,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -789,7 +818,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -846,8 +874,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normálne" xfId="0" builtinId="0"/>
@@ -869,6 +909,66 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>156010</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>164224</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>211519</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>99520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Obrázok 1" descr="VÃ½sledok vyhÄ¾adÃ¡vania obrÃ¡zkov pre dopyt devkit esp32 c pinout"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="156010" y="2069224"/>
+          <a:ext cx="9797285" cy="4126296"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
@@ -885,7 +985,7 @@
         <xdr:cNvPr id="2" name="Obrázok 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1179,8 +1279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1194,7 +1294,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
-        <v>3</v>
+        <v>170</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>3</v>
@@ -1215,6 +1315,9 @@
         <v>38</v>
       </c>
       <c r="K1" s="1"/>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
@@ -1236,7 +1339,12 @@
       <c r="H2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="1"/>
+      <c r="J2" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
@@ -1260,7 +1368,12 @@
       <c r="H3" s="5">
         <v>13</v>
       </c>
-      <c r="K3" s="1"/>
+      <c r="J3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1285,8 +1398,15 @@
       <c r="H4" s="5">
         <v>10</v>
       </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
+      <c r="J4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="L4" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
@@ -1310,8 +1430,15 @@
       <c r="H5" s="5">
         <v>12</v>
       </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
+      <c r="J5" t="s">
+        <v>172</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="L5" s="1">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
@@ -1335,8 +1462,15 @@
       <c r="H6" s="5">
         <v>11</v>
       </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+      <c r="J6" t="s">
+        <v>174</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
@@ -1354,6 +1488,15 @@
       <c r="H7" s="5" t="s">
         <v>25</v>
       </c>
+      <c r="J7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="1">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
@@ -1370,6 +1513,15 @@
       </c>
       <c r="H8" s="6" t="s">
         <v>27</v>
+      </c>
+      <c r="J8" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="1">
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1380,6 +1532,15 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
+      <c r="J9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="L9" s="1">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -1403,7 +1564,6 @@
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -1463,6 +1623,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1631,8 +1792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1649,10 +1810,10 @@
       <c r="C2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="47" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="7" t="s">
@@ -1675,10 +1836,10 @@
       <c r="C3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="48" t="s">
         <v>73</v>
       </c>
       <c r="F3" s="8" t="s">
@@ -1699,10 +1860,10 @@
       <c r="C4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="50" t="s">
         <v>75</v>
       </c>
       <c r="F4" s="9">
@@ -1729,10 +1890,10 @@
       <c r="C5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="50" t="s">
         <v>74</v>
       </c>
       <c r="F5" s="9">
@@ -1755,19 +1916,19 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="46">
+      <c r="B6" s="45">
         <v>5</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="46">
+      <c r="F6" s="45">
         <v>14</v>
       </c>
       <c r="G6" s="9" t="s">
@@ -1787,19 +1948,19 @@
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="46">
+      <c r="B7" s="45">
         <v>7</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="46">
+      <c r="F7" s="45">
         <v>13</v>
       </c>
       <c r="G7" s="9" t="s">
@@ -1819,19 +1980,19 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="46">
+      <c r="B8" s="45">
         <v>9</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="46" t="s">
+      <c r="D8" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="46">
+      <c r="F8" s="45">
         <v>16</v>
       </c>
       <c r="G8" s="9" t="s">
@@ -1851,19 +2012,19 @@
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="46">
+      <c r="B9" s="45">
         <v>13</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="46">
+      <c r="F9" s="45">
         <v>23</v>
       </c>
       <c r="G9" s="9" t="s">
@@ -1883,25 +2044,25 @@
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="48">
+      <c r="B10" s="46">
         <v>15</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="D10" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="48" t="s">
+      <c r="E10" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="48">
+      <c r="F10" s="46">
         <v>3</v>
       </c>
-      <c r="G10" s="42" t="s">
+      <c r="G10" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="42" t="s">
+      <c r="H10" s="41" t="s">
         <v>59</v>
       </c>
       <c r="J10">
@@ -1915,19 +2076,19 @@
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="43">
+      <c r="B11" s="42">
         <v>3</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="45"/>
-      <c r="E11" s="43" t="s">
+      <c r="D11" s="44"/>
+      <c r="E11" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
       <c r="J11" t="s">
         <v>71</v>
       </c>
@@ -1971,7 +2132,7 @@
       <c r="B1" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1979,10 +2140,10 @@
       <c r="A2" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>2000000000</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1990,7 +2151,7 @@
       <c r="A3" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="12">
         <v>2</v>
       </c>
       <c r="D3" t="s">
@@ -2001,7 +2162,7 @@
       <c r="A4" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="12">
         <v>12</v>
       </c>
       <c r="C4">
@@ -2016,7 +2177,7 @@
       <c r="A5" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="12">
         <v>1</v>
       </c>
       <c r="D5" t="s">
@@ -2151,7 +2312,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2167,71 +2328,71 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
+      <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
+      <c r="A4" s="16">
         <v>2</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
+      <c r="A5" s="16">
         <v>3</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
+      <c r="A6" s="16">
         <v>4</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="18">
+      <c r="A7" s="17">
         <v>5</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="F7" s="38"/>
+      <c r="F7" s="37"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2239,7 +2400,7 @@
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="16" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2247,7 +2408,7 @@
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="16" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2255,7 +2416,7 @@
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2294,384 +2455,384 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="23">
+      <c r="B2" s="22">
         <v>5</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="18">
         <v>1</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="23" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="26" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="H5" s="14"/>
+      <c r="D5" s="29"/>
+      <c r="H5" s="13"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="31">
+      <c r="B6" s="30">
         <v>5</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="31">
         <v>2</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="H6" s="14"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="32" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="32" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="32" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="31"/>
-      <c r="C10" s="32" t="s">
+      <c r="B10" s="30"/>
+      <c r="C10" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="32" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="32" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="36" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="D14" s="30"/>
-      <c r="F14" s="28" t="s">
+      <c r="D14" s="29"/>
+      <c r="F14" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="G14" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="H14" s="30"/>
+      <c r="H14" s="29"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="31">
+      <c r="B15" s="30">
         <v>5</v>
       </c>
-      <c r="C15" s="32">
+      <c r="C15" s="31">
         <v>3</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="F15" s="31">
+      <c r="F15" s="30">
         <v>5</v>
       </c>
-      <c r="G15" s="32">
+      <c r="G15" s="31">
         <v>3</v>
       </c>
-      <c r="H15" s="33"/>
+      <c r="H15" s="32"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="D16" s="33"/>
-      <c r="F16" s="31">
+      <c r="D16" s="32"/>
+      <c r="F16" s="30">
         <v>6</v>
       </c>
-      <c r="G16" s="32">
+      <c r="G16" s="31">
         <v>4</v>
       </c>
-      <c r="H16" s="33" t="s">
+      <c r="H16" s="32" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="31"/>
-      <c r="C17" s="31">
+      <c r="B17" s="30"/>
+      <c r="C17" s="30">
         <v>1</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="F17" s="34" t="s">
+      <c r="F17" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="G17" s="32" t="s">
+      <c r="G17" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="H17" s="33" t="s">
+      <c r="H17" s="32" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="31"/>
-      <c r="C18" s="31">
+      <c r="B18" s="30"/>
+      <c r="C18" s="30">
         <v>2</v>
       </c>
-      <c r="D18" s="33" t="s">
+      <c r="D18" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="F18" s="35"/>
-      <c r="G18" s="36">
+      <c r="F18" s="34"/>
+      <c r="G18" s="35">
         <v>1</v>
       </c>
-      <c r="H18" s="37" t="s">
+      <c r="H18" s="36" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="31"/>
-      <c r="C19" s="31">
+      <c r="B19" s="30"/>
+      <c r="C19" s="30">
         <v>3</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="D19" s="32" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="31"/>
-      <c r="C20" s="31">
+      <c r="B20" s="30"/>
+      <c r="C20" s="30">
         <v>4</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="F20" s="28" t="s">
+      <c r="F20" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="G20" s="29" t="s">
+      <c r="G20" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="H20" s="30"/>
+      <c r="H20" s="29"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="40"/>
-      <c r="C21" s="40">
+      <c r="B21" s="39"/>
+      <c r="C21" s="39">
         <v>5</v>
       </c>
-      <c r="D21" s="39" t="s">
+      <c r="D21" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="F21" s="31">
+      <c r="F21" s="30">
         <v>5</v>
       </c>
-      <c r="G21" s="32">
+      <c r="G21" s="31">
         <v>3</v>
       </c>
-      <c r="H21" s="33"/>
+      <c r="H21" s="32"/>
     </row>
     <row r="22" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="35"/>
-      <c r="C22" s="35">
+      <c r="B22" s="34"/>
+      <c r="C22" s="34">
         <v>6</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="F22" s="31">
+      <c r="F22" s="30">
         <v>6</v>
       </c>
-      <c r="G22" s="32">
+      <c r="G22" s="31">
         <v>6</v>
       </c>
-      <c r="H22" s="33" t="s">
+      <c r="H22" s="32" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C23" s="40">
+      <c r="C23" s="39">
         <v>7</v>
       </c>
-      <c r="D23" s="39" t="s">
+      <c r="D23" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="F23" s="31">
+      <c r="F23" s="30">
         <v>7</v>
       </c>
-      <c r="G23" s="32" t="s">
+      <c r="G23" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="H23" s="33" t="s">
+      <c r="H23" s="32" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C24" s="40">
+      <c r="C24" s="39">
         <v>8</v>
       </c>
-      <c r="D24" s="39" t="s">
+      <c r="D24" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="F24" s="31"/>
-      <c r="G24" s="32" t="s">
+      <c r="F24" s="30"/>
+      <c r="G24" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="H24" s="33" t="s">
+      <c r="H24" s="32" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F25" s="31">
+      <c r="F25" s="30">
         <v>8</v>
       </c>
-      <c r="G25" s="32" t="s">
+      <c r="G25" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="H25" s="33" t="s">
+      <c r="H25" s="32" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F26" s="31"/>
-      <c r="G26" s="11" t="s">
+      <c r="F26" s="30"/>
+      <c r="G26" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="H26" s="39" t="s">
+      <c r="H26" s="38" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F27" s="31"/>
-      <c r="G27" s="32" t="s">
+      <c r="F27" s="30"/>
+      <c r="G27" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="H27" s="39" t="s">
+      <c r="H27" s="38" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F28" s="31">
+      <c r="F28" s="30">
         <v>9</v>
       </c>
-      <c r="G28" s="32" t="s">
+      <c r="G28" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="H28" s="33" t="s">
+      <c r="H28" s="32" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F29" s="31">
+      <c r="F29" s="30">
         <v>10</v>
       </c>
-      <c r="G29" s="32" t="s">
+      <c r="G29" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="H29" s="33" t="s">
+      <c r="H29" s="32" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F30" s="31" t="s">
+      <c r="F30" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="G30" s="32" t="s">
+      <c r="G30" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="H30" s="39" t="s">
+      <c r="H30" s="38" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F31" s="31">
+      <c r="F31" s="30">
         <v>29</v>
       </c>
-      <c r="G31" s="32" t="s">
+      <c r="G31" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="H31" s="33" t="s">
+      <c r="H31" s="32" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F32" s="35">
+      <c r="F32" s="34">
         <v>30</v>
       </c>
-      <c r="G32" s="36" t="s">
+      <c r="G32" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="H32" s="37" t="s">
+      <c r="H32" s="36" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2710,7 +2871,7 @@
       <c r="B2" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="40" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2721,7 +2882,7 @@
       <c r="B3" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="40" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2729,7 +2890,7 @@
       <c r="A4" t="s">
         <v>159</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="40" t="s">
         <v>157</v>
       </c>
       <c r="C4" t="s">
@@ -2740,7 +2901,7 @@
       <c r="A5" t="s">
         <v>160</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="40" t="s">
         <v>161</v>
       </c>
       <c r="C5" t="s">
@@ -2751,7 +2912,7 @@
       <c r="A6" t="s">
         <v>163</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="40" t="s">
         <v>157</v>
       </c>
       <c r="C6" t="s">
@@ -2762,7 +2923,7 @@
       <c r="A7" t="s">
         <v>164</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="40" t="s">
         <v>157</v>
       </c>
       <c r="C7" t="s">
@@ -2773,14 +2934,14 @@
       <c r="A8" t="s">
         <v>165</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="40" t="s">
         <v>167</v>
       </c>
       <c r="C8" t="s">
         <v>166</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1-SystemDocs/Connections_Ports_Memory_spec.xlsx
+++ b/1-SystemDocs/Connections_Ports_Memory_spec.xlsx
@@ -15,14 +15,13 @@
     <sheet name="SPI ETH ESP32" sheetId="1" r:id="rId1"/>
     <sheet name="Pinout ETH DEEK" sheetId="2" r:id="rId2"/>
     <sheet name="JTAG conn" sheetId="3" r:id="rId3"/>
-    <sheet name="Hárok1" sheetId="10" r:id="rId4"/>
-    <sheet name="SD usage" sheetId="4" r:id="rId5"/>
-    <sheet name="UDP packets" sheetId="5" r:id="rId6"/>
-    <sheet name="UDP datagram definition" sheetId="6" r:id="rId7"/>
-    <sheet name="Message Types" sheetId="7" r:id="rId8"/>
-    <sheet name="ADC selection" sheetId="9" r:id="rId9"/>
-    <sheet name="Time budget" sheetId="11" r:id="rId10"/>
-    <sheet name="TO DO" sheetId="8" r:id="rId11"/>
+    <sheet name="SD usage" sheetId="4" r:id="rId4"/>
+    <sheet name="UDP packets" sheetId="5" r:id="rId5"/>
+    <sheet name="UDP datagram definition" sheetId="6" r:id="rId6"/>
+    <sheet name="Message Types" sheetId="7" r:id="rId7"/>
+    <sheet name="ADC selection" sheetId="9" r:id="rId8"/>
+    <sheet name="Time budget" sheetId="11" r:id="rId9"/>
+    <sheet name="TO DO" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -985,7 +984,7 @@
         <xdr:cNvPr id="2" name="Obrázok 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1280,7 +1279,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1314,7 +1313,12 @@
       <c r="H1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="1"/>
+      <c r="J1" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="L1" t="s">
         <v>9</v>
       </c>
@@ -1338,12 +1342,6 @@
       </c>
       <c r="H2" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="J2" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1628,54 +1626,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B3">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>300</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -1710,7 +1660,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B6"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2102,18 +2052,6 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2229,7 +2167,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -2292,7 +2230,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
@@ -2440,7 +2378,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H32"/>
   <sheetViews>
@@ -2841,7 +2779,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -2946,4 +2884,52 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/1-SystemDocs/Connections_Ports_Memory_spec.xlsx
+++ b/1-SystemDocs/Connections_Ports_Memory_spec.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="SPI ETH ESP32" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="180">
   <si>
     <t>ETH*</t>
   </si>
@@ -570,6 +570,15 @@
   </si>
   <si>
     <t>ETH_RST</t>
+  </si>
+  <si>
+    <t>Writing to SD</t>
+  </si>
+  <si>
+    <t>SD logging</t>
+  </si>
+  <si>
+    <t>20MHz SPI</t>
   </si>
 </sst>
 </file>
@@ -984,7 +993,7 @@
         <xdr:cNvPr id="2" name="Obrázok 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1002,6 +1011,49 @@
         <a:xfrm>
           <a:off x="608135" y="2286000"/>
           <a:ext cx="2028571" cy="2428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>599238</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>104143</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Obrázok 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="381000"/>
+          <a:ext cx="6695238" cy="5057143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1278,7 +1330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
@@ -2888,18 +2940,19 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>89</v>
       </c>
@@ -2907,7 +2960,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>168</v>
       </c>
@@ -2917,8 +2970,11 @@
       <c r="C2">
         <v>284</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>168</v>
       </c>
@@ -2929,7 +2985,22 @@
         <v>300</v>
       </c>
     </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4">
+        <v>68</v>
+      </c>
+      <c r="C4">
+        <v>9000</v>
+      </c>
+      <c r="D4" t="s">
+        <v>179</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/1-SystemDocs/Connections_Ports_Memory_spec.xlsx
+++ b/1-SystemDocs/Connections_Ports_Memory_spec.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="SPI ETH ESP32" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="181">
   <si>
     <t>ETH*</t>
   </si>
@@ -380,9 +380,6 @@
     <t>X</t>
   </si>
   <si>
-    <t>6..9</t>
-  </si>
-  <si>
     <t>Analog input for sensor detection</t>
   </si>
   <si>
@@ -392,9 +389,6 @@
     <t>Baseline test for connected sensors</t>
   </si>
   <si>
-    <t>MESSAGE_TYPE</t>
-  </si>
-  <si>
     <t>Start trigger</t>
   </si>
   <si>
@@ -413,9 +407,6 @@
     <t>Built-in Test trigger</t>
   </si>
   <si>
-    <t>7..8</t>
-  </si>
-  <si>
     <t>ERROR CODE</t>
   </si>
   <si>
@@ -485,15 +476,6 @@
     <t>Sensor 12</t>
   </si>
   <si>
-    <t>10..13</t>
-  </si>
-  <si>
-    <t>14..18</t>
-  </si>
-  <si>
-    <t>50..53</t>
-  </si>
-  <si>
     <t>ADS114S08</t>
   </si>
   <si>
@@ -579,6 +561,27 @@
   </si>
   <si>
     <t>20MHz SPI</t>
+  </si>
+  <si>
+    <t>ANNOUNCEMENT announcing sensor unit is on network</t>
+  </si>
+  <si>
+    <t>COMMAND</t>
+  </si>
+  <si>
+    <t>5..8</t>
+  </si>
+  <si>
+    <t>9..12</t>
+  </si>
+  <si>
+    <t>13..17</t>
+  </si>
+  <si>
+    <t>49..52</t>
+  </si>
+  <si>
+    <t>6..7</t>
   </si>
 </sst>
 </file>
@@ -807,7 +810,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -895,6 +898,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -993,7 +999,7 @@
         <xdr:cNvPr id="2" name="Obrázok 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1345,7 +1351,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>3</v>
@@ -1369,7 +1375,7 @@
         <v>74</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="L1" t="s">
         <v>9</v>
@@ -1452,7 +1458,7 @@
         <v>44</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="L4" s="1">
         <v>4</v>
@@ -1481,10 +1487,10 @@
         <v>12</v>
       </c>
       <c r="J5" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="L5" s="1">
         <v>17</v>
@@ -1513,7 +1519,7 @@
         <v>11</v>
       </c>
       <c r="J6" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>14</v>
@@ -1586,7 +1592,7 @@
         <v>23</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="L9" s="1">
         <v>23</v>
@@ -1689,17 +1695,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2286,8 +2292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2319,7 +2325,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>104</v>
@@ -2330,7 +2336,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>105</v>
@@ -2341,7 +2347,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>105</v>
@@ -2352,7 +2358,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>106</v>
@@ -2363,7 +2369,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>101</v>
@@ -2380,7 +2386,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>107</v>
@@ -2388,7 +2394,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>107</v>
@@ -2396,7 +2402,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>107</v>
@@ -2404,7 +2410,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>107</v>
@@ -2412,17 +2418,17 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2432,10 +2438,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H32"/>
+  <dimension ref="B22:H58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2444,386 +2450,421 @@
     <col min="8" max="8" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="19" t="s">
+    <row r="22" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C23" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D23" s="21" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="22">
+    <row r="24" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B24" s="22">
+        <v>4</v>
+      </c>
+      <c r="C24" s="18">
+        <v>4</v>
+      </c>
+      <c r="D24" s="56" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="22">
+        <v>4</v>
+      </c>
+      <c r="C28" s="18">
+        <v>1</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="D31" s="29"/>
+      <c r="H31" s="13"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="30">
+        <v>4</v>
+      </c>
+      <c r="C32" s="31">
+        <v>2</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="H32" s="13"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" s="32" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34" s="32" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" s="32" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="30"/>
+      <c r="C36" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="32" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D37" s="32" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="C38" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="36" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="D40" s="29"/>
+      <c r="F40" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="G40" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="H40" s="29"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="30">
+        <v>4</v>
+      </c>
+      <c r="C41" s="31">
+        <v>3</v>
+      </c>
+      <c r="D41" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="F41" s="30">
+        <v>4</v>
+      </c>
+      <c r="G41" s="31">
+        <v>3</v>
+      </c>
+      <c r="H41" s="32"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="C42" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="D42" s="32"/>
+      <c r="F42" s="30">
         <v>5</v>
       </c>
-      <c r="C2" s="18">
+      <c r="G42" s="31">
+        <v>4</v>
+      </c>
+      <c r="H42" s="32" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="30"/>
+      <c r="C43" s="30">
         <v>1</v>
       </c>
-      <c r="D2" s="23" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="27" t="s">
+      <c r="D43" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="F43" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="G43" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="H43" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="30"/>
+      <c r="C44" s="30">
+        <v>2</v>
+      </c>
+      <c r="D44" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="F44" s="34"/>
+      <c r="G44" s="35">
+        <v>1</v>
+      </c>
+      <c r="H44" s="36" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="30"/>
+      <c r="C45" s="30">
+        <v>3</v>
+      </c>
+      <c r="D45" s="32" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="30"/>
+      <c r="C46" s="30">
+        <v>4</v>
+      </c>
+      <c r="D46" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="F46" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="G46" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="H5" s="13"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="30">
+      <c r="H46" s="29"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="39"/>
+      <c r="C47" s="39">
         <v>5</v>
       </c>
-      <c r="C6" s="31">
-        <v>2</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="H6" s="13"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="30"/>
-      <c r="C10" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="30" t="s">
+      <c r="D47" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="F47" s="30">
+        <v>4</v>
+      </c>
+      <c r="G47" s="31">
+        <v>3</v>
+      </c>
+      <c r="H47" s="32"/>
+    </row>
+    <row r="48" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="34"/>
+      <c r="C48" s="34">
+        <v>6</v>
+      </c>
+      <c r="D48" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="F48" s="30">
+        <v>5</v>
+      </c>
+      <c r="G48" s="31">
+        <v>6</v>
+      </c>
+      <c r="H48" s="32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C49" s="39">
+        <v>7</v>
+      </c>
+      <c r="D49" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="F49" s="30">
+        <v>6</v>
+      </c>
+      <c r="G49" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="H49" s="32" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C50" s="39">
+        <v>8</v>
+      </c>
+      <c r="D50" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="F50" s="30"/>
+      <c r="G50" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="H50" s="32" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F51" s="30">
+        <v>7</v>
+      </c>
+      <c r="G51" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="H51" s="32" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F52" s="30"/>
+      <c r="G52" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="D14" s="29"/>
-      <c r="F14" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="G14" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="H14" s="29"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="30">
-        <v>5</v>
-      </c>
-      <c r="C15" s="31">
-        <v>3</v>
-      </c>
-      <c r="D15" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="F15" s="30">
-        <v>5</v>
-      </c>
-      <c r="G15" s="31">
-        <v>3</v>
-      </c>
-      <c r="H15" s="32"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="D16" s="32"/>
-      <c r="F16" s="30">
-        <v>6</v>
-      </c>
-      <c r="G16" s="31">
-        <v>4</v>
-      </c>
-      <c r="H16" s="32" t="s">
+      <c r="H52" s="38" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="30"/>
-      <c r="C17" s="30">
-        <v>1</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="F17" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="G17" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="H17" s="32" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="30"/>
-      <c r="C18" s="30">
-        <v>2</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="F18" s="34"/>
-      <c r="G18" s="35">
-        <v>1</v>
-      </c>
-      <c r="H18" s="36" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="30"/>
-      <c r="C19" s="30">
-        <v>3</v>
-      </c>
-      <c r="D19" s="32" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="30"/>
-      <c r="C20" s="30">
-        <v>4</v>
-      </c>
-      <c r="D20" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="F20" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="G20" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="H20" s="29"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="39"/>
-      <c r="C21" s="39">
-        <v>5</v>
-      </c>
-      <c r="D21" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="F21" s="30">
-        <v>5</v>
-      </c>
-      <c r="G21" s="31">
-        <v>3</v>
-      </c>
-      <c r="H21" s="32"/>
-    </row>
-    <row r="22" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="34"/>
-      <c r="C22" s="34">
-        <v>6</v>
-      </c>
-      <c r="D22" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="F22" s="30">
-        <v>6</v>
-      </c>
-      <c r="G22" s="31">
-        <v>6</v>
-      </c>
-      <c r="H22" s="32" t="s">
+    <row r="53" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F53" s="30"/>
+      <c r="G53" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="H53" s="38" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C23" s="39">
-        <v>7</v>
-      </c>
-      <c r="D23" s="38" t="s">
+    <row r="54" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F54" s="30">
+        <v>8</v>
+      </c>
+      <c r="G54" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="H54" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="F23" s="30">
-        <v>7</v>
-      </c>
-      <c r="G23" s="31" t="s">
+    </row>
+    <row r="55" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F55" s="30">
+        <v>9</v>
+      </c>
+      <c r="G55" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="H23" s="32" t="s">
+      <c r="H55" s="32" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C24" s="39">
-        <v>8</v>
-      </c>
-      <c r="D24" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="F24" s="30"/>
-      <c r="G24" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="H24" s="32" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F25" s="30">
-        <v>8</v>
-      </c>
-      <c r="G25" s="31" t="s">
+    <row r="56" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F56" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="G56" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="H56" s="38" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="57" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F57" s="30">
+        <v>28</v>
+      </c>
+      <c r="G57" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="H25" s="32" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F26" s="30"/>
-      <c r="G26" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="H26" s="38" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F27" s="30"/>
-      <c r="G27" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="H27" s="38" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F28" s="30">
-        <v>9</v>
-      </c>
-      <c r="G28" s="31" t="s">
+      <c r="H57" s="32" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="58" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F58" s="34">
+        <v>29</v>
+      </c>
+      <c r="G58" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="H28" s="32" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F29" s="30">
-        <v>10</v>
-      </c>
-      <c r="G29" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="H29" s="32" t="s">
+      <c r="H58" s="36" t="s">
         <v>136</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F30" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="G30" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="H30" s="38" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F31" s="30">
-        <v>29</v>
-      </c>
-      <c r="G31" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="H31" s="32" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F32" s="34">
-        <v>30</v>
-      </c>
-      <c r="G32" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="H32" s="36" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2848,87 +2889,87 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C5" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C6" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C8" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
@@ -2942,7 +2983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -2957,12 +2998,12 @@
         <v>89</v>
       </c>
       <c r="C1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2971,12 +3012,12 @@
         <v>284</v>
       </c>
       <c r="I2" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B3">
         <v>8</v>
@@ -2987,7 +3028,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B4">
         <v>68</v>
@@ -2996,7 +3037,7 @@
         <v>9000</v>
       </c>
       <c r="D4" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/1-SystemDocs/Connections_Ports_Memory_spec.xlsx
+++ b/1-SystemDocs/Connections_Ports_Memory_spec.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="SPI ETH ESP32" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="ADC selection" sheetId="9" r:id="rId8"/>
     <sheet name="Time budget" sheetId="11" r:id="rId9"/>
     <sheet name="TO DO" sheetId="8" r:id="rId10"/>
+    <sheet name="System setup" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="192">
   <si>
     <t>ETH*</t>
   </si>
@@ -582,6 +583,39 @@
   </si>
   <si>
     <t>6..7</t>
+  </si>
+  <si>
+    <t>datagram order MSB</t>
+  </si>
+  <si>
+    <t>datagram order</t>
+  </si>
+  <si>
+    <t>datagram order LSB</t>
+  </si>
+  <si>
+    <t>set up DHCP on router</t>
+  </si>
+  <si>
+    <t>connect Unit with ethernet cable</t>
+  </si>
+  <si>
+    <t>turn on power to unit</t>
+  </si>
+  <si>
+    <t>watch DHCP client list in router configuration</t>
+  </si>
+  <si>
+    <t>Set up IP address reservation for the sensor unit</t>
+  </si>
+  <si>
+    <t>power cycle or reset unit</t>
+  </si>
+  <si>
+    <t>open labview app</t>
+  </si>
+  <si>
+    <t>Unit should appear in acknowledged clients</t>
   </si>
 </sst>
 </file>
@@ -810,7 +844,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -876,7 +910,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -999,7 +1032,7 @@
         <xdr:cNvPr id="2" name="Obrázok 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1371,7 +1404,7 @@
       <c r="H1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="54" t="s">
+      <c r="J1" s="53" t="s">
         <v>74</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -1570,7 +1603,7 @@
       <c r="H8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="55" t="s">
+      <c r="J8" s="54" t="s">
         <v>26</v>
       </c>
       <c r="K8" s="1" t="s">
@@ -1706,6 +1739,115 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1818,10 +1960,10 @@
       <c r="C2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="46" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="7" t="s">
@@ -1844,10 +1986,10 @@
       <c r="C3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="47" t="s">
         <v>73</v>
       </c>
       <c r="F3" s="8" t="s">
@@ -1868,10 +2010,10 @@
       <c r="C4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="49" t="s">
         <v>75</v>
       </c>
       <c r="F4" s="9">
@@ -1898,10 +2040,10 @@
       <c r="C5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="49" t="s">
         <v>74</v>
       </c>
       <c r="F5" s="9">
@@ -1924,19 +2066,19 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="45">
+      <c r="B6" s="44">
         <v>5</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="52" t="s">
+      <c r="E6" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="45">
+      <c r="F6" s="44">
         <v>14</v>
       </c>
       <c r="G6" s="9" t="s">
@@ -1956,19 +2098,19 @@
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="45">
+      <c r="B7" s="44">
         <v>7</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="52" t="s">
+      <c r="E7" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="45">
+      <c r="F7" s="44">
         <v>13</v>
       </c>
       <c r="G7" s="9" t="s">
@@ -1988,19 +2130,19 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="45">
+      <c r="B8" s="44">
         <v>9</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="52" t="s">
+      <c r="E8" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="45">
+      <c r="F8" s="44">
         <v>16</v>
       </c>
       <c r="G8" s="9" t="s">
@@ -2020,19 +2162,19 @@
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="45">
+      <c r="B9" s="44">
         <v>13</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="52" t="s">
+      <c r="E9" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F9" s="44">
         <v>23</v>
       </c>
       <c r="G9" s="9" t="s">
@@ -2052,25 +2194,25 @@
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="46">
+      <c r="B10" s="45">
         <v>15</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="53" t="s">
+      <c r="E10" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="46">
+      <c r="F10" s="45">
         <v>3</v>
       </c>
-      <c r="G10" s="41" t="s">
+      <c r="G10" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="41" t="s">
+      <c r="H10" s="40" t="s">
         <v>59</v>
       </c>
       <c r="J10">
@@ -2084,19 +2226,19 @@
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="42">
+      <c r="B11" s="41">
         <v>3</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="44"/>
-      <c r="E11" s="42" t="s">
+      <c r="D11" s="43"/>
+      <c r="E11" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
       <c r="J11" t="s">
         <v>71</v>
       </c>
@@ -2230,7 +2372,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2290,10 +2432,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2303,16 +2445,16 @@
     <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>96</v>
       </c>
@@ -2322,8 +2464,17 @@
       <c r="C2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>0</v>
       </c>
@@ -2333,8 +2484,17 @@
       <c r="C3" s="16" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" s="16">
+        <v>0</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>1</v>
       </c>
@@ -2344,8 +2504,17 @@
       <c r="C4" s="16" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" s="16">
+        <v>1</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>2</v>
       </c>
@@ -2355,8 +2524,17 @@
       <c r="C5" s="16" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="16">
+        <v>2</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>3</v>
       </c>
@@ -2366,8 +2544,17 @@
       <c r="C6" s="16" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" s="16">
+        <v>3</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>4</v>
       </c>
@@ -2377,57 +2564,101 @@
       <c r="C7" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="F7" s="37"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="17">
+        <v>4</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>7</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="E15">
         <v>11</v>
       </c>
     </row>
@@ -2440,8 +2671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B22:H58"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2469,7 +2700,7 @@
       <c r="C24" s="18">
         <v>4</v>
       </c>
-      <c r="D24" s="56" t="s">
+      <c r="D24" s="55" t="s">
         <v>174</v>
       </c>
     </row>
@@ -2718,11 +2949,11 @@
       <c r="H46" s="29"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="39"/>
-      <c r="C47" s="39">
+      <c r="B47" s="38"/>
+      <c r="C47" s="38">
         <v>5</v>
       </c>
-      <c r="D47" s="38" t="s">
+      <c r="D47" s="37" t="s">
         <v>121</v>
       </c>
       <c r="F47" s="30">
@@ -2752,10 +2983,10 @@
       </c>
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C49" s="39">
+      <c r="C49" s="38">
         <v>7</v>
       </c>
-      <c r="D49" s="38" t="s">
+      <c r="D49" s="37" t="s">
         <v>129</v>
       </c>
       <c r="F49" s="30">
@@ -2769,10 +3000,10 @@
       </c>
     </row>
     <row r="50" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C50" s="39">
+      <c r="C50" s="38">
         <v>8</v>
       </c>
-      <c r="D50" s="38" t="s">
+      <c r="D50" s="37" t="s">
         <v>139</v>
       </c>
       <c r="F50" s="30"/>
@@ -2799,7 +3030,7 @@
       <c r="G52" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="H52" s="38" t="s">
+      <c r="H52" s="37" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2808,7 +3039,7 @@
       <c r="G53" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="H53" s="38" t="s">
+      <c r="H53" s="37" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2841,7 +3072,7 @@
       <c r="G56" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="H56" s="38" t="s">
+      <c r="H56" s="37" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2902,7 +3133,7 @@
       <c r="B2" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="39" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2913,7 +3144,7 @@
       <c r="B3" t="s">
         <v>149</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="39" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2921,7 +3152,7 @@
       <c r="A4" t="s">
         <v>153</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="39" t="s">
         <v>151</v>
       </c>
       <c r="C4" t="s">
@@ -2932,7 +3163,7 @@
       <c r="A5" t="s">
         <v>154</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="39" t="s">
         <v>155</v>
       </c>
       <c r="C5" t="s">
@@ -2943,7 +3174,7 @@
       <c r="A6" t="s">
         <v>157</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="39" t="s">
         <v>151</v>
       </c>
       <c r="C6" t="s">
@@ -2954,7 +3185,7 @@
       <c r="A7" t="s">
         <v>158</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="39" t="s">
         <v>151</v>
       </c>
       <c r="C7" t="s">
@@ -2965,7 +3196,7 @@
       <c r="A8" t="s">
         <v>159</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="39" t="s">
         <v>161</v>
       </c>
       <c r="C8" t="s">

--- a/1-SystemDocs/Connections_Ports_Memory_spec.xlsx
+++ b/1-SystemDocs/Connections_Ports_Memory_spec.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="4" activeTab="10"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="SPI ETH ESP32" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="201">
   <si>
     <t>ETH*</t>
   </si>
@@ -616,6 +616,33 @@
   </si>
   <si>
     <t>Unit should appear in acknowledged clients</t>
+  </si>
+  <si>
+    <t>I2C ADC</t>
+  </si>
+  <si>
+    <t>I2C speed</t>
+  </si>
+  <si>
+    <t>kHz</t>
+  </si>
+  <si>
+    <t>time to get one bit</t>
+  </si>
+  <si>
+    <t>2 bytes / one reading</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>9 sensors</t>
+  </si>
+  <si>
+    <t>cancelled - set in DHCP server</t>
+  </si>
+  <si>
+    <t>cancelled - would have to be switched to each sensor port</t>
   </si>
 </sst>
 </file>
@@ -1032,7 +1059,7 @@
         <xdr:cNvPr id="2" name="Obrázok 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1718,25 +1745,34 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="56" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>115</v>
       </c>
@@ -1750,7 +1786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -3212,15 +3248,16 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3271,6 +3308,58 @@
         <v>173</v>
       </c>
     </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B9">
+        <v>400</v>
+      </c>
+      <c r="C9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B10">
+        <f>1/(B9)</f>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>196</v>
+      </c>
+      <c r="B11">
+        <f>B10*16</f>
+        <v>0.04</v>
+      </c>
+      <c r="C11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>198</v>
+      </c>
+      <c r="B12">
+        <f>B11*9</f>
+        <v>0.36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>197</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
